--- a/eval/score_rag.xlsx
+++ b/eval/score_rag.xlsx
@@ -64,14 +64,13 @@
 6. Fakultas Ekonomi (FE)
 7. Fakultas Bahasa dan Seni (FBS)
 8. Fakultas Kedokteran (FK)
-9. Fakultas Pascasarjana
-Jika ada pertanyaan lain seputar Penerimaan Mahasiswa Baru, silakan tanyakan!</t>
+9. Fakultas Pascasarjana</t>
   </si>
   <si>
     <t>['Rektor Universitas Pendidikan Ganesha (Undiksha) adalah Prof. Dr. I Wayan Lasmawan, M.Pd.']</t>
   </si>
   <si>
-    <t>['Universitas Pendidikan Ganesha memiliki 9 fakultas, yaitu:\n\n1. Fakultas Teknik dan Kejuruan (FTK)\n2. Fakultas Olahraga dan Kesehatan (FOK)\n3. Fakultas Matematika dan Ilmu Pengetahuan Alam (FMIPA)\n4. Fakultas Ilmu Pendidikan (FIP)\n5. Fakultas Hukum dan Ilmu Sosial (FHIS)\n6. Fakultas Ekonomi (FE)\n7. Fakultas Bahasa dan Seni (FBS)\n8. Fakultas Kedokteran (FK)\n9. Fakultas Pascasarjana\n\nJika ada pertanyaan lain seputar Penerimaan Mahasiswa Baru, silakan tanyakan!']</t>
+    <t>['Universitas Pendidikan Ganesha memiliki 9 fakultas, yaitu:\n\n1. Fakultas Teknik dan Kejuruan (FTK)\n2. Fakultas Olahraga dan Kesehatan (FOK)\n3. Fakultas Matematika dan Ilmu Pengetahuan Alam (FMIPA)\n4. Fakultas Ilmu Pendidikan (FIP)\n5. Fakultas Hukum dan Ilmu Sosial (FHIS)\n6. Fakultas Ekonomi (FE)\n7. Fakultas Bahasa dan Seni (FBS)\n8. Fakultas Kedokteran (FK)\n9. Fakultas Pascasarjana\n\nJika ada pertanyaan lain, silakan tanyakan!']</t>
   </si>
   <si>
     <t>Prof. Dr. I Wayan Lasmawan, M.Pd.</t>
@@ -141,9 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,11 +518,14 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="H3">
-        <v>0.911275691869572</v>
+        <v>0.8587191317343127</v>
       </c>
       <c r="I3">
-        <v>0.9704252305898574</v>
+        <v>0.9646797829085781</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -545,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.9073364563271809</v>
+        <v>0.8810581762595512</v>
       </c>
       <c r="I5">
-        <v>0.9768341140567952</v>
+        <v>0.9702645440398878</v>
       </c>
     </row>
   </sheetData>
